--- a/analyse.xlsx
+++ b/analyse.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projets\DevProjects\TemperatureHumide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bruno\Documents\Projets\DevProjects\TemperatureHumide\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Graphique1" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -163,103 +163,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,42 +295,6 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -396,7 +324,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -412,103 +340,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,42 +472,6 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
@@ -637,15 +493,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -661,103 +517,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,103 +589,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>40</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -908,7 +692,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -924,103 +708,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,42 +840,6 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -1157,7 +869,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1173,103 +885,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,42 +1017,6 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1398,17 +1038,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1424,103 +1062,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,103 +1134,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,7 +1283,6 @@
         <c:axId val="470567624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
           <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1781,7 +1346,6 @@
         <c:axId val="473292072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="21"/>
           <c:min val="17"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2483,7 +2047,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2494,7 +2058,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -2820,9 +2384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2851,7 +2417,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -2860,7 +2426,7 @@
         <v>45</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>18</v>
@@ -2869,12 +2435,12 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>35</v>
@@ -2883,7 +2449,7 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>18</v>
@@ -2892,12 +2458,12 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -2906,7 +2472,7 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>18</v>
@@ -2915,12 +2481,12 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -2929,7 +2495,7 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>18</v>
@@ -2938,12 +2504,12 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -2952,7 +2518,7 @@
         <v>45</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>18</v>
@@ -2961,12 +2527,12 @@
         <v>20</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -2975,7 +2541,7 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -2984,12 +2550,12 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>35</v>
@@ -2998,7 +2564,7 @@
         <v>45</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>18</v>
@@ -3007,12 +2573,12 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -3021,7 +2587,7 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -3030,12 +2596,12 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -3044,7 +2610,7 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -3053,12 +2619,12 @@
         <v>20</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>35</v>
@@ -3067,7 +2633,7 @@
         <v>45</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>18</v>
@@ -3076,12 +2642,12 @@
         <v>20</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>35</v>
@@ -3090,7 +2656,7 @@
         <v>45</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -3099,12 +2665,12 @@
         <v>20</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>35</v>
@@ -3113,7 +2679,7 @@
         <v>45</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>18</v>
@@ -3122,12 +2688,12 @@
         <v>20</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>35</v>
@@ -3136,7 +2702,7 @@
         <v>45</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -3145,12 +2711,12 @@
         <v>20</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>35</v>
@@ -3159,7 +2725,7 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>18</v>
@@ -3168,12 +2734,12 @@
         <v>20</v>
       </c>
       <c r="G15">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>35</v>
@@ -3182,7 +2748,7 @@
         <v>45</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>18</v>
@@ -3191,12 +2757,12 @@
         <v>20</v>
       </c>
       <c r="G16">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>35</v>
@@ -3205,7 +2771,7 @@
         <v>45</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>18</v>
@@ -3214,12 +2780,12 @@
         <v>20</v>
       </c>
       <c r="G17">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>35</v>
@@ -3228,7 +2794,7 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>18</v>
@@ -3237,12 +2803,12 @@
         <v>20</v>
       </c>
       <c r="G18">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>35</v>
@@ -3251,7 +2817,7 @@
         <v>45</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -3260,12 +2826,12 @@
         <v>20</v>
       </c>
       <c r="G19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>35</v>
@@ -3274,7 +2840,7 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -3283,12 +2849,12 @@
         <v>20</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>35</v>
@@ -3297,7 +2863,7 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -3306,12 +2872,12 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -3320,7 +2886,7 @@
         <v>45</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>18</v>
@@ -3329,12 +2895,12 @@
         <v>20</v>
       </c>
       <c r="G22">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -3343,7 +2909,7 @@
         <v>45</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>18</v>
@@ -3352,283 +2918,7 @@
         <v>20</v>
       </c>
       <c r="G23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>45</v>
-      </c>
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>18</v>
-      </c>
-      <c r="F24">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>35</v>
-      </c>
-      <c r="C25">
-        <v>45</v>
-      </c>
-      <c r="D25">
-        <v>40</v>
-      </c>
-      <c r="E25">
-        <v>18</v>
-      </c>
-      <c r="F25">
-        <v>20</v>
-      </c>
-      <c r="G25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>45</v>
-      </c>
-      <c r="D26">
-        <v>40</v>
-      </c>
-      <c r="E26">
-        <v>18</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>35</v>
-      </c>
-      <c r="C27">
-        <v>45</v>
-      </c>
-      <c r="D27">
-        <v>41</v>
-      </c>
-      <c r="E27">
-        <v>18</v>
-      </c>
-      <c r="F27">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>45</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <v>20</v>
-      </c>
-      <c r="G28">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>40</v>
-      </c>
-      <c r="E29">
-        <v>18</v>
-      </c>
-      <c r="F29">
-        <v>20</v>
-      </c>
-      <c r="G29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>40</v>
-      </c>
-      <c r="E30">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>35</v>
-      </c>
-      <c r="C31">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>40</v>
-      </c>
-      <c r="E31">
-        <v>18</v>
-      </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
-      <c r="G31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>35</v>
-      </c>
-      <c r="C32">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>40</v>
-      </c>
-      <c r="E32">
-        <v>18</v>
-      </c>
-      <c r="F32">
-        <v>20</v>
-      </c>
-      <c r="G32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>35</v>
-      </c>
-      <c r="C33">
-        <v>45</v>
-      </c>
-      <c r="D33">
-        <v>40</v>
-      </c>
-      <c r="E33">
-        <v>18</v>
-      </c>
-      <c r="F33">
-        <v>20</v>
-      </c>
-      <c r="G33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>40</v>
-      </c>
-      <c r="E34">
-        <v>18</v>
-      </c>
-      <c r="F34">
-        <v>20</v>
-      </c>
-      <c r="G34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>45</v>
-      </c>
-      <c r="D35">
-        <v>40</v>
-      </c>
-      <c r="E35">
-        <v>18</v>
-      </c>
-      <c r="F35">
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
